--- a/biology/Botanique/Heinrich_Gustav_Reichenbach/Heinrich_Gustav_Reichenbach.xlsx
+++ b/biology/Botanique/Heinrich_Gustav_Reichenbach/Heinrich_Gustav_Reichenbach.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Heinrich Gustav Reichenbach est un botaniste allemand né le 3 janvier 1824 à Dresde et mort le 6 mai 1889 à Hambourg.
 Son père est le botaniste bien connu Heinrich Gottlieb Ludwig Reichenbach (1793-1879).
@@ -512,7 +524,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il devient docteur en botanique avec une thèse portant sur le pollen des orchidées dont il avait commencé l’étude à dix-huit ans. Il collabore avec son père à la réalisation de ses Icones Florae Germanicae et Helveticae.
 Après l’obtention de son diplôme, il devient, en 1855, professeur extraordinaire de botanique à Leipzig. De 1863 à 1889, il devient le directeur du jardin botanique de l’université de Hambourg. À cette époque de très nombreuses espèces d’orchidées sont expédiées en Europe par les voyageurs et naturalistes qui parcourent alors le monde. Après le décès de son ami et père de l’orchidologie, John Lindley (1799-1865), Reichenbach devient l’autorité mondiale en la matière. Il reçoit alors des spécimens de partout et son herbier devient l’un des plus riches au monde, égalisant avec celui de Lindley conservé dans les collections des Jardins botaniques royaux de Kew.
@@ -546,7 +560,9 @@
           <t>Quelques œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>De pollinis Orchidearum genesi ac structura et de Orchideis in artem ac systema redigendis. Commentatio quam ex auctoritate amplissimi philosophorum ordinis die mensis julii decimo hora decima MDCCCLII illustris ictorum ordinis concessu in auditorio juridico pro venia docendi impetranda publice defendet (F. Hofmeister, Leipzig, 1852) — Sur l’origine et la structure du pollen d’orchidée.
 Beiträge zu einer Orchideenkunde Central-Amerika's (T.G. Meissner, Hambourg, 1866).
